--- a/reports/resnet18_23_no_MMTM/prediction/1/probability_train_1.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/1/probability_train_1.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2051781415939331</v>
+        <v>0.1579421907663345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7948218584060669</v>
+        <v>0.8420577645301819</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6721421480178833</v>
+        <v>0.5114526748657227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3278578519821167</v>
+        <v>0.4885473251342773</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5863049030303955</v>
+        <v>0.3350655436515808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4136950969696045</v>
+        <v>0.6649343967437744</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2630987763404846</v>
+        <v>0.4064248502254486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7369011640548706</v>
+        <v>0.593575119972229</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1704337894916534</v>
+        <v>0.2996946573257446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8295662403106689</v>
+        <v>0.7003053426742554</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184903010725975</v>
+        <v>0.2436615526676178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8150969743728638</v>
+        <v>0.7563384175300598</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1115684360265732</v>
+        <v>0.3345096707344055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8884315490722656</v>
+        <v>0.6654903292655945</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2415594458580017</v>
+        <v>0.5511481761932373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7584404945373535</v>
+        <v>0.4488518238067627</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1016919165849686</v>
+        <v>0.2411334216594696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8983080387115479</v>
+        <v>0.758866548538208</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3895116448402405</v>
+        <v>0.4951828122138977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6104884147644043</v>
+        <v>0.5048171877861023</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8212189674377441</v>
+        <v>0.7419329881668091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1787810176610947</v>
+        <v>0.2580670118331909</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.112325981259346</v>
+        <v>0.1305654048919678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8876739740371704</v>
+        <v>0.8694345951080322</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5233509540557861</v>
+        <v>0.6604824662208557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4766491055488586</v>
+        <v>0.3395175337791443</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.152102991938591</v>
+        <v>0.3585615754127502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8478969931602478</v>
+        <v>0.6414384245872498</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2319549024105072</v>
+        <v>0.2576846778392792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7680450677871704</v>
+        <v>0.7423152923583984</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3255764245986938</v>
+        <v>0.349689781665802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6744235754013062</v>
+        <v>0.6503101587295532</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9882752299308777</v>
+        <v>0.9009472727775574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01172481290996075</v>
+        <v>0.09905269742012024</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04460794106125832</v>
+        <v>0.1303735375404358</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9553920030593872</v>
+        <v>0.8696264624595642</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8288278579711914</v>
+        <v>0.6579098105430603</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1711721569299698</v>
+        <v>0.3420901894569397</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1638603508472443</v>
+        <v>0.2629117369651794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8361396789550781</v>
+        <v>0.7370882034301758</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.458305835723877</v>
+        <v>0.3642539381980896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.541694164276123</v>
+        <v>0.6357460618019104</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1446620672941208</v>
+        <v>0.2521843910217285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8553379774093628</v>
+        <v>0.7478156089782715</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6406736969947815</v>
+        <v>0.6729149222373962</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3593263030052185</v>
+        <v>0.3270851075649261</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09741088002920151</v>
+        <v>0.3950204849243164</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9025891423225403</v>
+        <v>0.6049795150756836</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1471525430679321</v>
+        <v>0.1469274014234543</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8528475165367126</v>
+        <v>0.8530726432800293</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04269363731145859</v>
+        <v>0.1119135394692421</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9573063254356384</v>
+        <v>0.8880864381790161</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08238943666219711</v>
+        <v>0.1936377882957458</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9176105260848999</v>
+        <v>0.8063622117042542</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2958883047103882</v>
+        <v>0.2500744163990021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7041116952896118</v>
+        <v>0.7499256134033203</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2831501960754395</v>
+        <v>0.3743734359741211</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7168498039245605</v>
+        <v>0.6256265640258789</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.639527440071106</v>
+        <v>0.5595581531524658</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3604725301265717</v>
+        <v>0.440441906452179</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1409628391265869</v>
+        <v>0.2359679043292999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8590371608734131</v>
+        <v>0.7640321254730225</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9867907762527466</v>
+        <v>0.8204485774040222</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0132091399282217</v>
+        <v>0.1795514672994614</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9878940582275391</v>
+        <v>0.9063477516174316</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01210594829171896</v>
+        <v>0.09365224093198776</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2364989221096039</v>
+        <v>0.07161328196525574</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7635011076927185</v>
+        <v>0.9283867478370667</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7706196904182434</v>
+        <v>0.7169569730758667</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2293802797794342</v>
+        <v>0.2830430269241333</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1976979672908783</v>
+        <v>0.4140177667140961</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8023021221160889</v>
+        <v>0.5859822630882263</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1753103882074356</v>
+        <v>0.2270409911870956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8246896266937256</v>
+        <v>0.7729589939117432</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.194441482424736</v>
+        <v>0.3997510671615601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8055585622787476</v>
+        <v>0.6002489328384399</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7403328418731689</v>
+        <v>0.6924231052398682</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2596671581268311</v>
+        <v>0.3075769543647766</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3249659538269043</v>
+        <v>0.304213285446167</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6750340461730957</v>
+        <v>0.695786714553833</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9436938762664795</v>
+        <v>0.8243836164474487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05630616098642349</v>
+        <v>0.1756163537502289</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5660740733146667</v>
+        <v>0.72074955701828</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4339259266853333</v>
+        <v>0.2792504727840424</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1729495525360107</v>
+        <v>0.1922325193881989</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8270504474639893</v>
+        <v>0.8077675104141235</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5967636108398438</v>
+        <v>0.6842237710952759</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4032363891601562</v>
+        <v>0.3157762289047241</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2908470332622528</v>
+        <v>0.4158390760421753</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7091529369354248</v>
+        <v>0.5841609239578247</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1690824031829834</v>
+        <v>0.2075472176074982</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8309175968170166</v>
+        <v>0.7924528121948242</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.46491339802742</v>
+        <v>0.4714625477790833</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5350866317749023</v>
+        <v>0.5285375118255615</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06028145179152489</v>
+        <v>0.2007066905498505</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9397185444831848</v>
+        <v>0.7992933392524719</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6474840044975281</v>
+        <v>0.6486368179321289</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3525159955024719</v>
+        <v>0.3513632416725159</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3179346024990082</v>
+        <v>0.2745533883571625</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6820653676986694</v>
+        <v>0.7254465818405151</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1548257023096085</v>
+        <v>0.1848480105400085</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8451743125915527</v>
+        <v>0.8151519894599915</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4431224465370178</v>
+        <v>0.4863559603691101</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5568775534629822</v>
+        <v>0.5136440992355347</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3279745280742645</v>
+        <v>0.4541322886943817</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6720254421234131</v>
+        <v>0.5458676815032959</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2882670164108276</v>
+        <v>0.2988433837890625</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7117329835891724</v>
+        <v>0.7011566162109375</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.194474995136261</v>
+        <v>0.3195869624614716</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8055250644683838</v>
+        <v>0.6804130077362061</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1339880973100662</v>
+        <v>0.2261485755443573</v>
       </c>
       <c r="C57" t="n">
-        <v>0.866011917591095</v>
+        <v>0.7738513946533203</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4355807900428772</v>
+        <v>0.4790745079517365</v>
       </c>
       <c r="C58" t="n">
-        <v>0.564419150352478</v>
+        <v>0.5209255218505859</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1103935986757278</v>
+        <v>0.1014091596007347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8896063566207886</v>
+        <v>0.8985908031463623</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6047729253768921</v>
+        <v>0.6436567306518555</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3952270746231079</v>
+        <v>0.3563432693481445</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1810542047023773</v>
+        <v>0.2443416118621826</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8189457654953003</v>
+        <v>0.7556584477424622</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1958225667476654</v>
+        <v>0.1529763489961624</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8041774034500122</v>
+        <v>0.847023606300354</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.988377571105957</v>
+        <v>0.8549984693527222</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01162245776504278</v>
+        <v>0.1450014710426331</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1444764584302902</v>
+        <v>0.2271837741136551</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8555235862731934</v>
+        <v>0.7728162407875061</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3432400822639465</v>
+        <v>0.4266297817230225</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6567599773406982</v>
+        <v>0.5733702182769775</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2063871324062347</v>
+        <v>0.1679419577121735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7936128377914429</v>
+        <v>0.8320580720901489</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2822799980640411</v>
+        <v>0.2976196706295013</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7177200317382812</v>
+        <v>0.7023802995681763</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1660259366035461</v>
+        <v>0.3014539778232574</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8339741230010986</v>
+        <v>0.6985459327697754</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9917094707489014</v>
+        <v>0.8818563222885132</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008290572091937065</v>
+        <v>0.118143618106842</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06938935816287994</v>
+        <v>0.3140332996845245</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9306106567382812</v>
+        <v>0.6859667301177979</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.851784348487854</v>
+        <v>0.6768957376480103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1482156813144684</v>
+        <v>0.3231042623519897</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9636287689208984</v>
+        <v>0.8528319001197815</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03637122735381126</v>
+        <v>0.1471680998802185</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9761864542961121</v>
+        <v>0.721886932849884</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02381351217627525</v>
+        <v>0.278113067150116</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1149604022502899</v>
+        <v>0.1406110823154449</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8850395679473877</v>
+        <v>0.8593888282775879</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5885307788848877</v>
+        <v>0.5661463141441345</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4114692211151123</v>
+        <v>0.4338536858558655</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5861952304840088</v>
+        <v>0.6570496559143066</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4138047099113464</v>
+        <v>0.3429503738880157</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7599514722824097</v>
+        <v>0.6453330516815186</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2400485873222351</v>
+        <v>0.3546668887138367</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1643532514572144</v>
+        <v>0.2621468305587769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8356467485427856</v>
+        <v>0.7378531694412231</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3465950489044189</v>
+        <v>0.3157044053077698</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6534048914909363</v>
+        <v>0.6842955350875854</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2236040830612183</v>
+        <v>0.2855607867240906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7763959169387817</v>
+        <v>0.7144392132759094</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4509674906730652</v>
+        <v>0.4877134263515472</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5490325689315796</v>
+        <v>0.5122866034507751</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.328414261341095</v>
+        <v>0.2457643151283264</v>
       </c>
       <c r="C82" t="n">
-        <v>0.671585738658905</v>
+        <v>0.7542356252670288</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9479825496673584</v>
+        <v>0.7203630208969116</v>
       </c>
       <c r="C83" t="n">
-        <v>0.05201747268438339</v>
+        <v>0.2796369791030884</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09999251365661621</v>
+        <v>0.2001385092735291</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9000074863433838</v>
+        <v>0.7998614311218262</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8306951522827148</v>
+        <v>0.720360279083252</v>
       </c>
       <c r="C85" t="n">
-        <v>0.169304832816124</v>
+        <v>0.279639720916748</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9559221267700195</v>
+        <v>0.857675313949585</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04407791420817375</v>
+        <v>0.1423246413469315</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3709774911403656</v>
+        <v>0.406446099281311</v>
       </c>
       <c r="C87" t="n">
-        <v>0.629022479057312</v>
+        <v>0.593553900718689</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3051871359348297</v>
+        <v>0.4422677159309387</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6948128938674927</v>
+        <v>0.5577322840690613</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4424932599067688</v>
+        <v>0.7057836651802063</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5575067400932312</v>
+        <v>0.2942163348197937</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1184905618429184</v>
+        <v>0.208012267947197</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8815094232559204</v>
+        <v>0.7919877767562866</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9318773746490479</v>
+        <v>0.766951322555542</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06812264025211334</v>
+        <v>0.2330487370491028</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1290846467018127</v>
+        <v>0.2562831044197083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8709153532981873</v>
+        <v>0.743716835975647</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.6871450543403625</v>
+        <v>0.3644758760929108</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3128548860549927</v>
+        <v>0.6355240941047668</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.7750229835510254</v>
+        <v>0.6879866123199463</v>
       </c>
       <c r="C94" t="n">
-        <v>0.224977046251297</v>
+        <v>0.3120134174823761</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.09893007576465607</v>
+        <v>0.1296341866254807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9010698795318604</v>
+        <v>0.8703657388687134</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3252424001693726</v>
+        <v>0.1539293229579926</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6747575998306274</v>
+        <v>0.8460706472396851</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1021257638931274</v>
+        <v>0.1417115777730942</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8978742361068726</v>
+        <v>0.8582884073257446</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.5421523451805115</v>
+        <v>0.4766193330287933</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4578476548194885</v>
+        <v>0.5233806371688843</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1317473202943802</v>
+        <v>0.4449323117733002</v>
       </c>
       <c r="C99" t="n">
-        <v>0.868252694606781</v>
+        <v>0.5550677180290222</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2868394553661346</v>
+        <v>0.3729375898838043</v>
       </c>
       <c r="C100" t="n">
-        <v>0.713160514831543</v>
+        <v>0.6270623803138733</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.807604968547821</v>
+        <v>0.7150557041168213</v>
       </c>
       <c r="C101" t="n">
-        <v>0.192395031452179</v>
+        <v>0.2849443256855011</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9419663548469543</v>
+        <v>0.8401707410812378</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05803363397717476</v>
+        <v>0.159829244017601</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.8357371091842651</v>
+        <v>0.8523361682891846</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1642629057168961</v>
+        <v>0.1476638317108154</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9477466940879822</v>
+        <v>0.8957959413528442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.05225330218672752</v>
+        <v>0.104204073548317</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4587700664997101</v>
+        <v>0.2096963971853256</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5412299633026123</v>
+        <v>0.7903035879135132</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1254006773233414</v>
+        <v>0.2119217664003372</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8745993375778198</v>
+        <v>0.7880781888961792</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3059739172458649</v>
+        <v>0.5321333408355713</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6940261125564575</v>
+        <v>0.4678665995597839</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7308690547943115</v>
+        <v>0.6461006999015808</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2691310048103333</v>
+        <v>0.3538993000984192</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.923511266708374</v>
+        <v>0.7838505506515503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.07648872584104538</v>
+        <v>0.2161494195461273</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.7631235718727112</v>
+        <v>0.7101318836212158</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2368764281272888</v>
+        <v>0.2898680865764618</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3936049342155457</v>
+        <v>0.4430826902389526</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6063950061798096</v>
+        <v>0.5569173097610474</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.06375095248222351</v>
+        <v>0.08243806660175323</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9362490177154541</v>
+        <v>0.9175618886947632</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.49787437915802</v>
+        <v>0.4841628670692444</v>
       </c>
       <c r="C113" t="n">
-        <v>0.50212562084198</v>
+        <v>0.5158371329307556</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4142103791236877</v>
+        <v>0.3838719427585602</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5857895612716675</v>
+        <v>0.6161280274391174</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1055295169353485</v>
+        <v>0.2501128613948822</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8944704532623291</v>
+        <v>0.7498871684074402</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.8207222819328308</v>
+        <v>0.6875007152557373</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1792777180671692</v>
+        <v>0.3124992847442627</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1484208554029465</v>
+        <v>0.2848256230354309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8515791296958923</v>
+        <v>0.7151743769645691</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9527541399002075</v>
+        <v>0.7893333435058594</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04724587127566338</v>
+        <v>0.2106666266918182</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4078894257545471</v>
+        <v>0.4142739772796631</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5921105742454529</v>
+        <v>0.5857260227203369</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.3108711242675781</v>
+        <v>0.5974679589271545</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6891288757324219</v>
+        <v>0.4025321006774902</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1375840902328491</v>
+        <v>0.2951423525810242</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8624159097671509</v>
+        <v>0.7048577070236206</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.4160341024398804</v>
+        <v>0.2774732708930969</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5839658975601196</v>
+        <v>0.7225266695022583</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9757736921310425</v>
+        <v>0.8555766344070435</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02422628924250603</v>
+        <v>0.1444233357906342</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.339914470911026</v>
+        <v>0.2821890115737915</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6600854992866516</v>
+        <v>0.7178109884262085</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9217491745948792</v>
+        <v>0.7380701303482056</v>
       </c>
       <c r="C125" t="n">
-        <v>0.07825085520744324</v>
+        <v>0.2619297802448273</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5760302543640137</v>
+        <v>0.4862916469573975</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4239696860313416</v>
+        <v>0.5137082934379578</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.7320797443389893</v>
+        <v>0.6849603652954102</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2679202854633331</v>
+        <v>0.3150396347045898</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1575128436088562</v>
+        <v>0.3288902044296265</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8424871563911438</v>
+        <v>0.6711097955703735</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.4672248959541321</v>
+        <v>0.5078310966491699</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5327751040458679</v>
+        <v>0.4921689629554749</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.7460336089134216</v>
+        <v>0.6305908560752869</v>
       </c>
       <c r="C130" t="n">
-        <v>0.253966361284256</v>
+        <v>0.3694092035293579</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3266890048980713</v>
+        <v>0.1687986999750137</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6733109951019287</v>
+        <v>0.8312013149261475</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.4357194006443024</v>
+        <v>0.5327199101448059</v>
       </c>
       <c r="C132" t="n">
-        <v>0.56428062915802</v>
+        <v>0.4672801494598389</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.7346162796020508</v>
+        <v>0.6451664566993713</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2653837203979492</v>
+        <v>0.3548335433006287</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3059770166873932</v>
+        <v>0.4522147178649902</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6940230131149292</v>
+        <v>0.5477852821350098</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.7129681706428528</v>
+        <v>0.5223376154899597</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2870318293571472</v>
+        <v>0.4776623845100403</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9863739013671875</v>
+        <v>0.8507533073425293</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01362604182213545</v>
+        <v>0.1492466777563095</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.4868498146533966</v>
+        <v>0.4265600442886353</v>
       </c>
       <c r="C137" t="n">
-        <v>0.513150155544281</v>
+        <v>0.5734399557113647</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1650172173976898</v>
+        <v>0.292278915643692</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8349828124046326</v>
+        <v>0.7077211141586304</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1528578400611877</v>
+        <v>0.3599233031272888</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8471421599388123</v>
+        <v>0.6400766372680664</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1758045852184296</v>
+        <v>0.159011647105217</v>
       </c>
       <c r="C140" t="n">
-        <v>0.824195384979248</v>
+        <v>0.8409883975982666</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.3451296389102936</v>
+        <v>0.5541625618934631</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6548703908920288</v>
+        <v>0.4458374381065369</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3085553050041199</v>
+        <v>0.2401206791400909</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6914446949958801</v>
+        <v>0.7598793506622314</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.08459825813770294</v>
+        <v>0.4258256256580353</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9154016971588135</v>
+        <v>0.5741743445396423</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.2051096111536026</v>
+        <v>0.2261395454406738</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7948904037475586</v>
+        <v>0.7738603949546814</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.8792803287506104</v>
+        <v>0.7198998928070068</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1207196563482285</v>
+        <v>0.2801001667976379</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.126976490020752</v>
+        <v>0.1420172601938248</v>
       </c>
       <c r="C146" t="n">
-        <v>0.873023509979248</v>
+        <v>0.8579827547073364</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.8432178497314453</v>
+        <v>0.7414394617080688</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1567822098731995</v>
+        <v>0.2585605382919312</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5837211608886719</v>
+        <v>0.3598215579986572</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4162788987159729</v>
+        <v>0.6401784420013428</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.6972800493240356</v>
+        <v>0.5298529267311096</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3027199804782867</v>
+        <v>0.4701470732688904</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.2911610305309296</v>
+        <v>0.2484095543622971</v>
       </c>
       <c r="C150" t="n">
-        <v>0.708838939666748</v>
+        <v>0.7515904307365417</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.3464235365390778</v>
+        <v>0.1560153663158417</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6535764336585999</v>
+        <v>0.8439846038818359</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2723680138587952</v>
+        <v>0.2542965114116669</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7276320457458496</v>
+        <v>0.7457034587860107</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.4269760549068451</v>
+        <v>0.3469509184360504</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5730239152908325</v>
+        <v>0.653049111366272</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1058656424283981</v>
+        <v>0.2383502423763275</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8941342830657959</v>
+        <v>0.7616497278213501</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.265512079000473</v>
+        <v>0.331223726272583</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7344879508018494</v>
+        <v>0.668776273727417</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9872301816940308</v>
+        <v>0.886039137840271</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01276988349854946</v>
+        <v>0.1139608398079872</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2604765892028809</v>
+        <v>0.4668386876583099</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7395234107971191</v>
+        <v>0.5331613421440125</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.2628441751003265</v>
+        <v>0.3960036039352417</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7371558547019958</v>
+        <v>0.6039963960647583</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3808107972145081</v>
+        <v>0.3693544864654541</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6191891431808472</v>
+        <v>0.6306455135345459</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.3984730839729309</v>
+        <v>0.3648993372917175</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6015269160270691</v>
+        <v>0.6351006031036377</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5930547714233398</v>
+        <v>0.6792557239532471</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4069452881813049</v>
+        <v>0.3207442760467529</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2938102781772614</v>
+        <v>0.4125253260135651</v>
       </c>
       <c r="C162" t="n">
-        <v>0.706189751625061</v>
+        <v>0.5874746441841125</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.3714166283607483</v>
+        <v>0.4659936130046844</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6285834312438965</v>
+        <v>0.5340063571929932</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.988848090171814</v>
+        <v>0.8930400609970093</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01115183066576719</v>
+        <v>0.1069599017500877</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.2447968274354935</v>
+        <v>0.1902041733264923</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7552031874656677</v>
+        <v>0.8097957968711853</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.4587485790252686</v>
+        <v>0.416141152381897</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5412514209747314</v>
+        <v>0.583858847618103</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6858614683151245</v>
+        <v>0.6058474779129028</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3141385316848755</v>
+        <v>0.3941525220870972</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4948635399341583</v>
+        <v>0.35955610871315</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5051364302635193</v>
+        <v>0.6404439210891724</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.05543555319309235</v>
+        <v>0.1437551230192184</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9445644617080688</v>
+        <v>0.8562448620796204</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
